--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2C1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5ABAC928-F5ED-46A6-89C7-C5C11B020A0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -141,11 +135,20 @@
   <si>
     <t xml:space="preserve">Verify that each user can create their own schedule, modify them when desired and delete if necessary. Make sure that all of this, is shown in the database. </t>
   </si>
+  <si>
+    <t>As a registered user , I can delete my account</t>
+  </si>
+  <si>
+    <t>As a registered user , I can change my username and password</t>
+  </si>
+  <si>
+    <t>As a registered user , I can add linked accounts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -701,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -753,7 +756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -947,22 +950,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1702,7 +1705,9 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
@@ -1743,9 +1748,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S15" s="20" t="str">
+      <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1798,7 +1803,9 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
@@ -1839,9 +1846,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S17" s="20" t="str">
+      <c r="S17" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1894,7 +1901,9 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -1935,9 +1944,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S19" s="20" t="str">
+      <c r="S19" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -51582,11 +51591,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -51597,13 +51606,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2C1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{60DCA13B-682A-4273-B3F2-62FD687DA6B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -144,11 +150,20 @@
   <si>
     <t>As a registered user , I can add linked accounts</t>
   </si>
+  <si>
+    <t xml:space="preserve">Verify that the user receivesa notifies that reassures their decision, a confirmation email of the process and that they are removed from the database. </t>
+  </si>
+  <si>
+    <t>Verify that the input data is valid, the database is updated and the view is updated too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can choose the type of the linked account, which can be Facebook or Twitter and that they are redirected to the correct website. Moreover, the changes are saved. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -950,22 +965,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1703,14 +1718,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="45">
       <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
@@ -1801,14 +1818,16 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="33.75">
       <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -1899,14 +1918,16 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="56.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
@@ -51591,11 +51612,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -51606,7 +51627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2C1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{60DCA13B-682A-4273-B3F2-62FD687DA6B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -159,11 +153,23 @@
   <si>
     <t xml:space="preserve">Verify that user can choose the type of the linked account, which can be Facebook or Twitter and that they are redirected to the correct website. Moreover, the changes are saved. </t>
   </si>
+  <si>
+    <t>As a registered user, I can add and update my profile picture.</t>
+  </si>
+  <si>
+    <t>Verify that the user can add a picture to his profile and change it at any time and the profile will be updated.</t>
+  </si>
+  <si>
+    <t>Verify that the user can edit his/her profile information at any time and the profile will be updated.</t>
+  </si>
+  <si>
+    <t>As a registered user, I can edit my basic information.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -965,14 +971,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
@@ -980,7 +986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2018,12 +2024,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="33.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
@@ -2061,17 +2071,21 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S21" s="20" t="str">
+      <c r="S21" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="33.75">
       <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
@@ -2109,9 +2123,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S22" s="20" t="str">
+      <c r="S22" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -51612,11 +51626,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -51627,7 +51641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrouk\Desktop\sem 6\sprint3\T17-Sprint2C1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -164,6 +169,9 @@
   </si>
   <si>
     <t>As a registered user, I can edit my basic information.</t>
+  </si>
+  <si>
+    <t>As a registered user, I want to browse all fields.</t>
   </si>
 </sst>
 </file>
@@ -971,7 +979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,8 +993,8 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1284,7 +1292,9 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1325,14 +1335,16 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S6" s="20" t="str">
+      <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -1373,9 +1385,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S7" s="20" t="str">
+      <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19">

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>As a registered user, I want to browse all fields.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view all experts of one of the available list of fields. Verify that the returned results are complete and correct.</t>
+  </si>
+  <si>
+    <t>As a registered user, I want to be able to do an basic search.</t>
+  </si>
+  <si>
+    <t>Verify that the user can search by expert name and  that the returned results are complete and correct.</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1290,14 +1299,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="45">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
@@ -1340,14 +1351,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="33.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrouk\Desktop\sem 6\sprint3\T17-Sprint2C1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -85,9 +80,6 @@
   </si>
   <si>
     <t>1 High</t>
-  </si>
-  <si>
-    <t>LG</t>
   </si>
   <si>
     <t>[A list of acceptance tests]</t>
@@ -182,11 +174,47 @@
   <si>
     <t>Verify that the user can search by expert name and  that the returned results are complete and correct.</t>
   </si>
+  <si>
+    <t>As an expert , I can add a topic</t>
+  </si>
+  <si>
+    <t>As a user, I can apply to be an expert</t>
+  </si>
+  <si>
+    <t>As an admin , I can accept or reject experts applications</t>
+  </si>
+  <si>
+    <t>the user get notification that the application is done and the admins can see this application</t>
+  </si>
+  <si>
+    <t>in case if acceptance the user become an expert and in case of rejection the user get notifiication that his application rejected</t>
+  </si>
+  <si>
+    <t>the topic added in the list of the expert's topics</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>XSM</t>
+  </si>
+  <si>
+    <t>2 Med</t>
+  </si>
+  <si>
+    <t>4 Low</t>
+  </si>
+  <si>
+    <t>3 Med</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -315,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -385,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,14 +1025,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
@@ -1003,7 +1040,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1079,58 +1116,54 @@
     <row r="2" spans="1:19" ht="22.5">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="15" t="e">
+        <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="16" t="str">
+        <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
+        <v/>
+      </c>
+      <c r="K2" s="17" t="e">
+        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="16" t="e">
+        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="16" t="str">
+        <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
+        <v/>
+      </c>
+      <c r="N2" s="16" t="e">
+        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="16" t="e">
+        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="18" t="str">
+        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
+        <v>[Theme, Epic, or Dept]</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="15" t="e">
-        <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="16">
-        <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="16">
-        <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="R2" s="19" t="e">
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -1143,23 +1176,27 @@
     </row>
     <row r="3" spans="1:19" ht="45">
       <c r="A3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="16" t="str">
+      <c r="J3" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K3" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1169,9 +1206,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M3" s="16" t="str">
+      <c r="M3" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N3" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1198,20 +1235,24 @@
     <row r="4" spans="1:19" ht="33.75">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="16" t="str">
+      <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K4" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1221,9 +1262,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="16" t="str">
+      <c r="M4" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N4" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1250,20 +1291,24 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="16" t="str">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K5" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1273,9 +1318,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="16" t="str">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N5" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1301,21 +1346,25 @@
     </row>
     <row r="6" spans="1:19" ht="45">
       <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="16" t="str">
+      <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K6" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1325,9 +1374,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="16" t="str">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N6" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1353,21 +1402,25 @@
     </row>
     <row r="7" spans="1:19" ht="33.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K7" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1377,9 +1430,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N7" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1645,23 +1698,27 @@
     </row>
     <row r="13" spans="1:19" ht="33.75">
       <c r="A13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K13" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1671,9 +1728,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N13" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1700,20 +1757,24 @@
     <row r="14" spans="1:19" ht="56.25">
       <c r="A14" s="9"/>
       <c r="B14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="25" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1723,9 +1784,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N14" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1752,20 +1813,24 @@
     <row r="15" spans="1:19" ht="45">
       <c r="A15" s="9"/>
       <c r="B15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K15" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1775,9 +1840,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N15" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1852,20 +1917,24 @@
     <row r="17" spans="1:19" ht="33.75">
       <c r="A17" s="9"/>
       <c r="B17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K17" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1875,9 +1944,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="N17" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1952,20 +2021,24 @@
     <row r="19" spans="1:19" ht="56.25">
       <c r="A19" s="9"/>
       <c r="B19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K19" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1975,9 +2048,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="N19" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2051,21 +2124,25 @@
     </row>
     <row r="21" spans="1:19" ht="33.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K21" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2075,9 +2152,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N21" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2103,21 +2180,25 @@
     </row>
     <row r="22" spans="1:19" ht="33.75">
       <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K22" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2127,9 +2208,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N22" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2155,7 +2236,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -2249,19 +2330,27 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="22.5">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K25" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2271,9 +2360,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N25" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2292,9 +2381,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S25" s="20" t="str">
+      <c r="S25" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2345,19 +2434,27 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="33.75">
       <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K27" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2367,9 +2464,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N27" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2388,9 +2485,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S27" s="20" t="str">
+      <c r="S27" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2441,19 +2538,27 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="45">
       <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2463,9 +2568,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N29" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2484,9 +2589,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S29" s="20" t="str">
+      <c r="S29" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -51666,7 +51771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>
